--- a/soon-alive-document/gantt-chart/곧감_프로젝트일정.xlsx
+++ b/soon-alive-document/gantt-chart/곧감_프로젝트일정.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{42DD84FB-06BE-D243-8D6C-87CD6021E7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC75397-1B31-2241-AE9E-885F3D251A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1680" windowWidth="38400" windowHeight="21120" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1660" windowWidth="38400" windowHeight="21100" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="12" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>이 GANTT 차트에 대한 정보</t>
   </si>
@@ -142,11 +142,47 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>작업 1</t>
+    <t>화면설계</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>제목 2</t>
+    <t>UI 뼈대 설계</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 작업</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>리팩토링</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 설계</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 베이스 설계</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스팅 및 배포</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포 환경에서 테스트</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +843,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1097,19 +1133,16 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,28 +1165,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="3"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1197,45 +1211,14 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right/>
-      </border>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1253,7 +1236,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -1297,19 +1280,69 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1812,7 +1845,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="중요 시점34" displayName="중요_시점34" ref="B8:F32" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="중요 시점34" displayName="중요_시점34" ref="B8:F32" headerRowDxfId="10">
   <autoFilter ref="B8:F32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1825,7 +1858,7 @@
     <tableColumn id="3" xr3:uid="{76EB9444-C31F-4CC3-88B2-0202B5893122}" name="담당자"/>
     <tableColumn id="4" xr3:uid="{52A1E4A6-5AE1-47AB-95DD-0B2C1394989A}" name="진행 상황"/>
     <tableColumn id="5" xr3:uid="{0671DF77-A989-41EA-819F-AF0A8A45AB0F}" name="시작"/>
-    <tableColumn id="6" xr3:uid="{B1E97C69-5901-4994-8267-A58A1A9D9898}" name="요일" totalsRowFunction="sum" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{B1E97C69-5901-4994-8267-A58A1A9D9898}" name="요일" totalsRowFunction="sum" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Gantt 테이블 스타일" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1837,7 +1870,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35262E6B-D397-41BC-8148-E03FF3C288A5}" name="중요 시점3" displayName="중요_시점3" ref="B8:F34" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35262E6B-D397-41BC-8148-E03FF3C288A5}" name="중요 시점3" displayName="중요_시점3" ref="B8:F34" headerRowDxfId="5">
   <autoFilter ref="B8:F34" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1850,7 +1883,7 @@
     <tableColumn id="3" xr3:uid="{7CE57B28-C7D6-4943-9CB2-5403F155663C}" name="담당자"/>
     <tableColumn id="4" xr3:uid="{4ABFA9C0-6C24-4FBD-B36B-5E50E5ED1573}" name="진행 상황"/>
     <tableColumn id="5" xr3:uid="{FDB2D45E-77F7-41D1-8F04-238D562FA535}" name="시작"/>
-    <tableColumn id="6" xr3:uid="{B63E4B4E-8A77-4BDD-90B2-1DB4B39AD960}" name="요일" totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{B63E4B4E-8A77-4BDD-90B2-1DB4B39AD960}" name="요일" totalsRowFunction="sum" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Gantt 테이블 스타일" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1862,7 +1895,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="중요 시점" displayName="중요_시점" ref="B8:F34" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="중요 시점" displayName="중요_시점" ref="B8:F34" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="B8:F34" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2228,7 +2261,7 @@
   <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -2402,7 +2435,7 @@
       </c>
       <c r="C5" s="47">
         <f ca="1">IFERROR(IF(MIN(중요_시점34[[#This Row],[요일]])=0,TODAY(),MIN(중요_시점34[[#This Row],[요일]])),TODAY())</f>
-        <v>45009</v>
+        <v>45022</v>
       </c>
       <c r="E5" s="63"/>
       <c r="H5" s="30"/>
@@ -2411,14 +2444,14 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
       <c r="M5" s="32"/>
-      <c r="O5" s="113" t="s">
+      <c r="O5" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
       <c r="U5" s="48">
         <v>0</v>
       </c>
@@ -2439,7 +2472,7 @@
       <c r="E6" s="2"/>
       <c r="H6" s="77" t="str">
         <f ca="1">TEXT(H7,"m월")</f>
-        <v>3월</v>
+        <v>4월</v>
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
@@ -2459,7 +2492,7 @@
       <c r="U6" s="23"/>
       <c r="V6" s="23" t="str">
         <f ca="1">IF(OR(TEXT(V7,"m월")=O6,TEXT(V7,"m월")=H6),"",TEXT(V7,"m월"))</f>
-        <v>4월</v>
+        <v/>
       </c>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
@@ -2479,7 +2512,7 @@
       <c r="AI6" s="23"/>
       <c r="AJ6" s="78" t="str">
         <f ca="1">IF(OR(TEXT(AJ7,"m월")=AC6,TEXT(AJ7,"m월")=V6,TEXT(AJ7,"m월")=O6,TEXT(AJ7,"m월")=H6),"",TEXT(AJ7,"m월"))</f>
-        <v/>
+        <v>5월</v>
       </c>
       <c r="AK6" s="78"/>
       <c r="AL6" s="78"/>
@@ -2499,7 +2532,7 @@
       <c r="AW6" s="23"/>
       <c r="AX6" s="23" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"m월")=AQ6,TEXT(AX7,"m월")=AJ6,TEXT(AX7,"m월")=AC6,TEXT(AX7,"m월")=V6),"",TEXT(AX7,"m월"))</f>
-        <v>5월</v>
+        <v/>
       </c>
       <c r="AY6" s="23"/>
       <c r="AZ6" s="23"/>
@@ -2524,227 +2557,227 @@
       <c r="E7" s="2"/>
       <c r="H7" s="86">
         <f ca="1">IFERROR(Project_Start+스크롤_증분,TODAY())</f>
-        <v>45009</v>
+        <v>45022</v>
       </c>
       <c r="I7" s="87">
         <f ca="1">H7+1</f>
-        <v>45010</v>
+        <v>45023</v>
       </c>
       <c r="J7" s="87">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>45011</v>
+        <v>45024</v>
       </c>
       <c r="K7" s="87">
         <f ca="1">J7+1</f>
-        <v>45012</v>
+        <v>45025</v>
       </c>
       <c r="L7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>45026</v>
       </c>
       <c r="M7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45027</v>
       </c>
       <c r="N7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45028</v>
       </c>
       <c r="O7" s="87">
         <f ca="1">N7+1</f>
-        <v>45016</v>
+        <v>45029</v>
       </c>
       <c r="P7" s="87">
         <f ca="1">O7+1</f>
-        <v>45017</v>
+        <v>45030</v>
       </c>
       <c r="Q7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45031</v>
       </c>
       <c r="R7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45019</v>
+        <v>45032</v>
       </c>
       <c r="S7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45020</v>
+        <v>45033</v>
       </c>
       <c r="T7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45034</v>
       </c>
       <c r="U7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45035</v>
       </c>
       <c r="V7" s="87">
         <f ca="1">U7+1</f>
-        <v>45023</v>
+        <v>45036</v>
       </c>
       <c r="W7" s="87">
         <f ca="1">V7+1</f>
-        <v>45024</v>
+        <v>45037</v>
       </c>
       <c r="X7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45038</v>
       </c>
       <c r="Y7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45026</v>
+        <v>45039</v>
       </c>
       <c r="Z7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="AA7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45041</v>
       </c>
       <c r="AB7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45042</v>
       </c>
       <c r="AC7" s="87">
         <f ca="1">AB7+1</f>
-        <v>45030</v>
+        <v>45043</v>
       </c>
       <c r="AD7" s="87">
         <f ca="1">AC7+1</f>
-        <v>45031</v>
+        <v>45044</v>
       </c>
       <c r="AE7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45045</v>
       </c>
       <c r="AF7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45033</v>
+        <v>45046</v>
       </c>
       <c r="AG7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45034</v>
+        <v>45047</v>
       </c>
       <c r="AH7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45048</v>
       </c>
       <c r="AI7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="AJ7" s="87">
         <f ca="1">AI7+1</f>
-        <v>45037</v>
+        <v>45050</v>
       </c>
       <c r="AK7" s="87">
         <f ca="1">AJ7+1</f>
-        <v>45038</v>
+        <v>45051</v>
       </c>
       <c r="AL7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45052</v>
       </c>
       <c r="AM7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45040</v>
+        <v>45053</v>
       </c>
       <c r="AN7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45041</v>
+        <v>45054</v>
       </c>
       <c r="AO7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45055</v>
       </c>
       <c r="AP7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45056</v>
       </c>
       <c r="AQ7" s="87">
         <f ca="1">AP7+1</f>
-        <v>45044</v>
+        <v>45057</v>
       </c>
       <c r="AR7" s="87">
         <f ca="1">AQ7+1</f>
-        <v>45045</v>
+        <v>45058</v>
       </c>
       <c r="AS7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45059</v>
       </c>
       <c r="AT7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45047</v>
+        <v>45060</v>
       </c>
       <c r="AU7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45048</v>
+        <v>45061</v>
       </c>
       <c r="AV7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="AW7" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45063</v>
       </c>
       <c r="AX7" s="87">
         <f ca="1">AW7+1</f>
-        <v>45051</v>
+        <v>45064</v>
       </c>
       <c r="AY7" s="87">
         <f ca="1">AX7+1</f>
-        <v>45052</v>
+        <v>45065</v>
       </c>
       <c r="AZ7" s="87">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>45053</v>
+        <v>45066</v>
       </c>
       <c r="BA7" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>45054</v>
+        <v>45067</v>
       </c>
       <c r="BB7" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>45055</v>
+        <v>45068</v>
       </c>
       <c r="BC7" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45069</v>
       </c>
       <c r="BD7" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="BE7" s="87">
         <f ca="1">BD7+1</f>
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="BF7" s="87">
         <f ca="1">BE7+1</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="BG7" s="87">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>45060</v>
+        <v>45073</v>
       </c>
       <c r="BH7" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>45061</v>
+        <v>45074</v>
       </c>
       <c r="BI7" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>45062</v>
+        <v>45075</v>
       </c>
       <c r="BJ7" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>45063</v>
+        <v>45076</v>
       </c>
       <c r="BK7" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>45064</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="8" spans="1:63" customFormat="1" ht="31" customHeight="1">
@@ -2767,227 +2800,227 @@
       <c r="G8" s="89"/>
       <c r="H8" s="83" t="str">
         <f t="shared" ref="H8:AM8" ca="1" si="3">LEFT(TEXT(H7,"aaa"),1)</f>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="I8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="J8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="K8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="L8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="M8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="N8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="O8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="P8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="Q8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="R8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="S8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="T8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="U8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="V8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="W8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="X8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="Y8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="Z8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AA8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AB8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AC8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AD8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AE8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AF8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AG8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AH8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AI8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AJ8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AK8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AL8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AM8" s="84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AN8" s="84" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"aaa"),1)</f>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AO8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AP8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AQ8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AR8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AS8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AT8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AU8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AV8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AW8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AX8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AY8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AZ8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="BA8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="BB8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="BC8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="BD8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="BE8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="BF8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="BG8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="BH8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="BI8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="BJ8" s="84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="BK8" s="85" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
     </row>
     <row r="9" spans="1:63" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -3295,232 +3328,238 @@
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="42">
+        <v>45005</v>
+      </c>
+      <c r="F11" s="12">
+        <v>14</v>
+      </c>
       <c r="G11" s="27"/>
       <c r="H11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="I11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="J11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="K11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="L11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="M11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="N11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="O11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="P11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Q11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="R11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="S11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="T11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="U11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="V11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="W11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="X11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Y11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Z11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AA11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AB11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AC11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AD11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AE11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AF11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AG11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AH11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AI11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AJ11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AK11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AL11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AM11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AN11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AO11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AP11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AQ11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AR11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AS11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AT11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AU11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AV11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AW11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AX11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AY11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AZ11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BA11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BB11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BC11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BD11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BE11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BF11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BG11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BH11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BI11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BJ11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BK11" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E11,$F11=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -3530,236 +3569,242 @@
         <v>27</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="12"/>
+      <c r="D12" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="42">
+        <v>45005</v>
+      </c>
+      <c r="F12" s="12">
+        <v>30</v>
+      </c>
       <c r="G12" s="27"/>
       <c r="H12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="I12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="J12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="K12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="L12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="O12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="P12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Q12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="R12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="S12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="T12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="U12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="V12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="W12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="X12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Y12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Z12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AA12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AB12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AC12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AD12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AE12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AF12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AG12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AH12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AI12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AJ12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AK12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AL12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AM12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AN12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AO12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AP12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AQ12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AR12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AS12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AT12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AU12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AV12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AW12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AX12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AY12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AZ12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BA12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BB12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BC12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BD12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BE12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BF12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BG12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BH12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BI12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BJ12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BK12" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E12,$F12=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A13" s="5"/>
       <c r="B13" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="82"/>
@@ -3826,12 +3871,16 @@
     <row r="14" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A14" s="5"/>
       <c r="B14" s="49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="82"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="42">
+        <v>45032</v>
+      </c>
+      <c r="F14" s="12">
+        <v>7</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -3893,12 +3942,16 @@
     <row r="15" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A15" s="5"/>
       <c r="B15" s="49" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="82"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="42">
+        <v>45037</v>
+      </c>
+      <c r="F15" s="12">
+        <v>5</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -3960,35 +4013,39 @@
     <row r="16" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="49" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="82"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="42">
+        <v>45039</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="I16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="J16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="K16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="L16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="M16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="N16" s="26"/>
@@ -4012,131 +4069,129 @@
       <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
       <c r="AH16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AI16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AJ16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AK16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AL16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AM16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AN16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AO16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AP16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AQ16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AR16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AS16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AT16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AU16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AV16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AW16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AX16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AY16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AZ16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BA16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BB16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BC16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BD16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BE16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BF16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BG16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BH16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BI16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BJ16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BK16" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E13,$F13=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="49" t="s">
-        <v>13</v>
-      </c>
+      <c r="B17" s="49"/>
       <c r="C17" s="13"/>
       <c r="D17" s="82"/>
       <c r="E17" s="42"/>
@@ -4309,9 +4364,7 @@
     </row>
     <row r="18" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="49" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="49"/>
       <c r="C18" s="13"/>
       <c r="D18" s="82"/>
       <c r="E18" s="42"/>
@@ -4485,7 +4538,7 @@
     <row r="19" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A19" s="5"/>
       <c r="B19" s="40" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="82"/>
@@ -4660,35 +4713,39 @@
     <row r="20" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A20" s="5"/>
       <c r="B20" s="49" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="82"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="42">
+        <v>45043</v>
+      </c>
+      <c r="F20" s="12">
+        <v>7</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="I20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="J20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="K20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="L20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="M20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="N20" s="26"/>
@@ -4712,158 +4769,162 @@
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
       <c r="AH20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AI20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AJ20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AK20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AL20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AM20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AN20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AO20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AP20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AQ20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AR20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AS20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AT20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AU20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AV20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AW20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AX20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AY20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AZ20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BA20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BB20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BC20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BD20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BE20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BF20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BG20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BH20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BI20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BJ20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BK20" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E17,$F17=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A21" s="5"/>
       <c r="B21" s="49" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="82"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="42">
+        <v>45049</v>
+      </c>
+      <c r="F21" s="12">
+        <v>7</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="I21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="J21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="K21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="L21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="M21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="N21" s="26"/>
@@ -4887,131 +4948,129 @@
       <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
       <c r="AH21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AI21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AJ21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AK21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AL21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AM21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AN21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AO21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AP21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AQ21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AR21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AS21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AT21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AU21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AV21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AW21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AX21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AY21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AZ21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BA21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BB21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BC21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BD21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BE21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BF21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BG21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BH21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BI21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BJ21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BK21" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E18,$F18=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="49" t="s">
-        <v>12</v>
-      </c>
+      <c r="B22" s="49"/>
       <c r="C22" s="13"/>
       <c r="D22" s="82"/>
       <c r="E22" s="42"/>
@@ -5184,9 +5243,7 @@
     </row>
     <row r="23" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="49" t="s">
-        <v>13</v>
-      </c>
+      <c r="B23" s="49"/>
       <c r="C23" s="13"/>
       <c r="D23" s="82"/>
       <c r="E23" s="42"/>
@@ -5359,9 +5416,7 @@
     </row>
     <row r="24" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="49" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="49"/>
       <c r="C24" s="13"/>
       <c r="D24" s="82"/>
       <c r="E24" s="42"/>
@@ -5535,7 +5590,7 @@
     <row r="25" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A25" s="5"/>
       <c r="B25" s="40" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="82"/>
@@ -5770,478 +5825,484 @@
     <row r="26" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A26" s="5"/>
       <c r="B26" s="49" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="82"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="42">
+        <v>45057</v>
+      </c>
+      <c r="F26" s="12">
+        <v>5</v>
+      </c>
       <c r="G26" s="27"/>
       <c r="H26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="I26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="J26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="K26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="L26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="M26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="N26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="O26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="P26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Q26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="R26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="S26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="T26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="U26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="V26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="W26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="X26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Y26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Z26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AA26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AB26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AC26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AD26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AE26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AF26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AG26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AH26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AI26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AJ26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AK26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AL26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AM26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AN26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AO26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AP26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AQ26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AR26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AS26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AT26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AU26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AV26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AW26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AX26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AY26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AZ26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BA26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BB26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BC26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BD26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BE26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BF26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BG26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BH26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BI26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BJ26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BK26" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E23,$F23=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A27" s="5"/>
       <c r="B27" s="49" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="82"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="42">
+        <v>45062</v>
+      </c>
+      <c r="F27" s="12">
+        <v>5</v>
+      </c>
       <c r="G27" s="27"/>
       <c r="H27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="I27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="J27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="K27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="L27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="M27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="N27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="O27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="P27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Q27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="R27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="S27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="T27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="U27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="V27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="W27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="X27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Y27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="Z27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AA27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AB27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AC27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AD27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AE27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AF27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AG27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AH27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AI27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AJ27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AK27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AL27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AM27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AN27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AO27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AP27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AQ27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AR27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AS27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AT27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AU27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AV27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AW27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AX27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AY27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="AZ27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BA27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BB27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BC27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BD27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BE27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BF27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BG27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BH27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BI27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BJ27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
       <c r="BK27" s="26" t="str">
-        <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E24,$F24=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="49" t="s">
-        <v>12</v>
-      </c>
+      <c r="B28" s="49"/>
       <c r="C28" s="13"/>
       <c r="D28" s="82"/>
       <c r="E28" s="42"/>
@@ -6474,9 +6535,7 @@
     </row>
     <row r="29" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="49" t="s">
-        <v>13</v>
-      </c>
+      <c r="B29" s="49"/>
       <c r="C29" s="13"/>
       <c r="D29" s="82"/>
       <c r="E29" s="42"/>
@@ -6709,9 +6768,7 @@
     </row>
     <row r="30" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="49" t="s">
-        <v>14</v>
-      </c>
+      <c r="B30" s="49"/>
       <c r="C30" s="13"/>
       <c r="D30" s="82"/>
       <c r="E30" s="42"/>
@@ -7655,223 +7712,223 @@
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(H$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="I34" s="116" t="str">
+      <c r="I34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(I$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="J34" s="116" t="str">
+      <c r="J34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(J$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="K34" s="116" t="str">
+      <c r="K34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(K$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="L34" s="116" t="str">
+      <c r="L34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(L$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="M34" s="116" t="str">
+      <c r="M34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(M$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="N34" s="116" t="str">
+      <c r="N34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(N$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="O34" s="116" t="str">
+      <c r="O34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(O$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="P34" s="116" t="str">
+      <c r="P34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(P$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="Q34" s="116" t="str">
+      <c r="Q34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Q$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="R34" s="116" t="str">
+      <c r="R34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(R$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="S34" s="116" t="str">
+      <c r="S34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(S$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="T34" s="116" t="str">
+      <c r="T34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(T$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="U34" s="116" t="str">
+      <c r="U34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(U$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="V34" s="116" t="str">
+      <c r="V34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(V$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="W34" s="116" t="str">
+      <c r="W34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(W$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="X34" s="116" t="str">
+      <c r="X34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(X$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="Y34" s="116" t="str">
+      <c r="Y34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Y$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="Z34" s="116" t="str">
+      <c r="Z34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(Z$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AA34" s="116" t="str">
+      <c r="AA34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AA$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AB34" s="116" t="str">
+      <c r="AB34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AB$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AC34" s="116" t="str">
+      <c r="AC34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AC$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AD34" s="116" t="str">
+      <c r="AD34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AD$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AE34" s="116" t="str">
+      <c r="AE34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AE$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AF34" s="116" t="str">
+      <c r="AF34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AF$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AG34" s="116" t="str">
+      <c r="AG34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AG$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AH34" s="116" t="str">
+      <c r="AH34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AH$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AI34" s="116" t="str">
+      <c r="AI34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AI$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ34" s="116" t="str">
+      <c r="AJ34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AJ$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AK34" s="116" t="str">
+      <c r="AK34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AK$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AL34" s="116" t="str">
+      <c r="AL34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AL$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AM34" s="116" t="str">
+      <c r="AM34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AM$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AN34" s="116" t="str">
+      <c r="AN34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AN$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AO34" s="116" t="str">
+      <c r="AO34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AO$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AP34" s="116" t="str">
+      <c r="AP34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AP$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ34" s="116" t="str">
+      <c r="AQ34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AQ$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AR34" s="116" t="str">
+      <c r="AR34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AR$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AS34" s="116" t="str">
+      <c r="AS34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AS$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AT34" s="116" t="str">
+      <c r="AT34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AT$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AU34" s="116" t="str">
+      <c r="AU34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AU$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AV34" s="116" t="str">
+      <c r="AV34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AV$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AW34" s="116" t="str">
+      <c r="AW34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AW$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AX34" s="116" t="str">
+      <c r="AX34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AX$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AY34" s="116" t="str">
+      <c r="AY34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AY$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ34" s="116" t="str">
+      <c r="AZ34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(AZ$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BA34" s="116" t="str">
+      <c r="BA34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BA$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BB34" s="116" t="str">
+      <c r="BB34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BB$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BC34" s="116" t="str">
+      <c r="BC34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BC$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BD34" s="116" t="str">
+      <c r="BD34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BD$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BE34" s="116" t="str">
+      <c r="BE34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BE$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BF34" s="116" t="str">
+      <c r="BF34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BF$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BG34" s="116" t="str">
+      <c r="BG34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BG$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BH34" s="116" t="str">
+      <c r="BH34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BH$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BI34" s="116" t="str">
+      <c r="BI34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BI$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ34" s="116" t="str">
+      <c r="BJ34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BJ$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
-      <c r="BK34" s="116" t="str">
+      <c r="BK34" s="114" t="str">
         <f>IFERROR(IF(LEN(_xlfn.SINGLE(중요_시점34[[#This Row],[요일]]))=0,"",IF(AND(BK$7=$E31,$F31=1),중요_시점_표식,"")),"")</f>
         <v/>
       </c>
@@ -7883,63 +7940,63 @@
       <c r="D35" s="100"/>
       <c r="E35" s="101"/>
       <c r="F35" s="100"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="117"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="117"/>
-      <c r="AD35" s="117"/>
-      <c r="AE35" s="117"/>
-      <c r="AF35" s="117"/>
-      <c r="AG35" s="117"/>
-      <c r="AH35" s="117"/>
-      <c r="AI35" s="117"/>
-      <c r="AJ35" s="117"/>
-      <c r="AK35" s="117"/>
-      <c r="AL35" s="117"/>
-      <c r="AM35" s="117"/>
-      <c r="AN35" s="117"/>
-      <c r="AO35" s="117"/>
-      <c r="AP35" s="117"/>
-      <c r="AQ35" s="117"/>
-      <c r="AR35" s="117"/>
-      <c r="AS35" s="117"/>
-      <c r="AT35" s="117"/>
-      <c r="AU35" s="117"/>
-      <c r="AV35" s="117"/>
-      <c r="AW35" s="117"/>
-      <c r="AX35" s="117"/>
-      <c r="AY35" s="117"/>
-      <c r="AZ35" s="117"/>
-      <c r="BA35" s="117"/>
-      <c r="BB35" s="117"/>
-      <c r="BC35" s="117"/>
-      <c r="BD35" s="117"/>
-      <c r="BE35" s="117"/>
-      <c r="BF35" s="117"/>
-      <c r="BG35" s="117"/>
-      <c r="BH35" s="117"/>
-      <c r="BI35" s="117"/>
-      <c r="BJ35" s="117"/>
-      <c r="BK35" s="117"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
+      <c r="AC35" s="115"/>
+      <c r="AD35" s="115"/>
+      <c r="AE35" s="115"/>
+      <c r="AF35" s="115"/>
+      <c r="AG35" s="115"/>
+      <c r="AH35" s="115"/>
+      <c r="AI35" s="115"/>
+      <c r="AJ35" s="115"/>
+      <c r="AK35" s="115"/>
+      <c r="AL35" s="115"/>
+      <c r="AM35" s="115"/>
+      <c r="AN35" s="115"/>
+      <c r="AO35" s="115"/>
+      <c r="AP35" s="115"/>
+      <c r="AQ35" s="115"/>
+      <c r="AR35" s="115"/>
+      <c r="AS35" s="115"/>
+      <c r="AT35" s="115"/>
+      <c r="AU35" s="115"/>
+      <c r="AV35" s="115"/>
+      <c r="AW35" s="115"/>
+      <c r="AX35" s="115"/>
+      <c r="AY35" s="115"/>
+      <c r="AZ35" s="115"/>
+      <c r="BA35" s="115"/>
+      <c r="BB35" s="115"/>
+      <c r="BC35" s="115"/>
+      <c r="BD35" s="115"/>
+      <c r="BE35" s="115"/>
+      <c r="BF35" s="115"/>
+      <c r="BG35" s="115"/>
+      <c r="BH35" s="115"/>
+      <c r="BI35" s="115"/>
+      <c r="BJ35" s="115"/>
+      <c r="BK35" s="115"/>
     </row>
     <row r="36" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="6"/>
@@ -8034,27 +8091,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK12 H14:BK35 H13:X13 Z13:BK13">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>H$7&lt;=오늘​​</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK12">
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:BK15 H13:X13 Z13:BK13">
-    <cfRule type="expression" dxfId="1" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="81" stopIfTrue="1">
       <formula>AND(H$7&gt;=#REF!+1,H$7&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:BK35">
-    <cfRule type="expression" dxfId="0" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="82" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E13+1,H$7&lt;=$E13+$F13-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8371,7 +8428,7 @@
       </c>
       <c r="C5" s="47">
         <f ca="1">IFERROR(IF(MIN(중요 #REF!)=0,TODAY(),MIN(중요 #REF!)),TODAY())</f>
-        <v>45009</v>
+        <v>45022</v>
       </c>
       <c r="E5" s="63"/>
       <c r="H5" s="33"/>
@@ -8380,14 +8437,14 @@
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="35"/>
-      <c r="O5" s="113" t="s">
+      <c r="O5" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
       <c r="U5" s="48">
         <v>13</v>
       </c>
@@ -8428,7 +8485,7 @@
       <c r="U6" s="23"/>
       <c r="V6" s="23" t="str">
         <f ca="1">IF(OR(TEXT(V7,"m월")=O6,TEXT(V7,"m월")=H6),"",TEXT(V7,"m월"))</f>
-        <v/>
+        <v>5월</v>
       </c>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
@@ -8448,7 +8505,7 @@
       <c r="AI6" s="23"/>
       <c r="AJ6" s="78" t="str">
         <f ca="1">IF(OR(TEXT(AJ7,"m월")=AC6,TEXT(AJ7,"m월")=V6,TEXT(AJ7,"m월")=O6,TEXT(AJ7,"m월")=H6),"",TEXT(AJ7,"m월"))</f>
-        <v>5월</v>
+        <v/>
       </c>
       <c r="AK6" s="78"/>
       <c r="AL6" s="78"/>
@@ -8478,7 +8535,7 @@
       <c r="BD6" s="23"/>
       <c r="BE6" s="23" t="str">
         <f ca="1">IF(OR(TEXT(BE7,"m월")=AX6,TEXT(BE7,"m월")=AQ6,TEXT(BE7,"m월")=AJ6,TEXT(BE7,"m월")=AC6),"",TEXT(BE7,"m월"))</f>
-        <v/>
+        <v>6월</v>
       </c>
       <c r="BF6" s="23"/>
       <c r="BG6" s="23"/>
@@ -8493,227 +8550,227 @@
       <c r="E7" s="2"/>
       <c r="H7" s="51">
         <f ca="1">IFERROR(Project_Start+스크롤_증분,TODAY())</f>
-        <v>45022</v>
+        <v>45035</v>
       </c>
       <c r="I7" s="52">
         <f ca="1">H7+1</f>
-        <v>45023</v>
+        <v>45036</v>
       </c>
       <c r="J7" s="52">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>45024</v>
+        <v>45037</v>
       </c>
       <c r="K7" s="52">
         <f ca="1">J7+1</f>
-        <v>45025</v>
+        <v>45038</v>
       </c>
       <c r="L7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45026</v>
+        <v>45039</v>
       </c>
       <c r="M7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="N7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45041</v>
       </c>
       <c r="O7" s="52">
         <f ca="1">N7+1</f>
-        <v>45029</v>
+        <v>45042</v>
       </c>
       <c r="P7" s="52">
         <f ca="1">O7+1</f>
-        <v>45030</v>
+        <v>45043</v>
       </c>
       <c r="Q7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45044</v>
       </c>
       <c r="R7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45045</v>
       </c>
       <c r="S7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45033</v>
+        <v>45046</v>
       </c>
       <c r="T7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45034</v>
+        <v>45047</v>
       </c>
       <c r="U7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45048</v>
       </c>
       <c r="V7" s="52">
         <f ca="1">U7+1</f>
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="W7" s="52">
         <f ca="1">V7+1</f>
-        <v>45037</v>
+        <v>45050</v>
       </c>
       <c r="X7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45051</v>
       </c>
       <c r="Y7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45052</v>
       </c>
       <c r="Z7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45040</v>
+        <v>45053</v>
       </c>
       <c r="AA7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45041</v>
+        <v>45054</v>
       </c>
       <c r="AB7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45055</v>
       </c>
       <c r="AC7" s="52">
         <f ca="1">AB7+1</f>
-        <v>45043</v>
+        <v>45056</v>
       </c>
       <c r="AD7" s="52">
         <f ca="1">AC7+1</f>
-        <v>45044</v>
+        <v>45057</v>
       </c>
       <c r="AE7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45045</v>
+        <v>45058</v>
       </c>
       <c r="AF7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45059</v>
       </c>
       <c r="AG7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45047</v>
+        <v>45060</v>
       </c>
       <c r="AH7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45048</v>
+        <v>45061</v>
       </c>
       <c r="AI7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="AJ7" s="52">
         <f ca="1">AI7+1</f>
-        <v>45050</v>
+        <v>45063</v>
       </c>
       <c r="AK7" s="52">
         <f ca="1">AJ7+1</f>
-        <v>45051</v>
+        <v>45064</v>
       </c>
       <c r="AL7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>45065</v>
       </c>
       <c r="AM7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45053</v>
+        <v>45066</v>
       </c>
       <c r="AN7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45054</v>
+        <v>45067</v>
       </c>
       <c r="AO7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45055</v>
+        <v>45068</v>
       </c>
       <c r="AP7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
+        <v>45069</v>
       </c>
       <c r="AQ7" s="52">
         <f ca="1">AP7+1</f>
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="AR7" s="52">
         <f ca="1">AQ7+1</f>
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="AS7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="AT7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45073</v>
       </c>
       <c r="AU7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45061</v>
+        <v>45074</v>
       </c>
       <c r="AV7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45062</v>
+        <v>45075</v>
       </c>
       <c r="AW7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45063</v>
+        <v>45076</v>
       </c>
       <c r="AX7" s="52">
         <f ca="1">AW7+1</f>
-        <v>45064</v>
+        <v>45077</v>
       </c>
       <c r="AY7" s="52">
         <f ca="1">AX7+1</f>
-        <v>45065</v>
+        <v>45078</v>
       </c>
       <c r="AZ7" s="52">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>45066</v>
+        <v>45079</v>
       </c>
       <c r="BA7" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>45067</v>
+        <v>45080</v>
       </c>
       <c r="BB7" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>45068</v>
+        <v>45081</v>
       </c>
       <c r="BC7" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>45069</v>
+        <v>45082</v>
       </c>
       <c r="BD7" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>45070</v>
+        <v>45083</v>
       </c>
       <c r="BE7" s="52">
         <f ca="1">BD7+1</f>
-        <v>45071</v>
+        <v>45084</v>
       </c>
       <c r="BF7" s="52">
         <f ca="1">BE7+1</f>
-        <v>45072</v>
+        <v>45085</v>
       </c>
       <c r="BG7" s="52">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>45073</v>
+        <v>45086</v>
       </c>
       <c r="BH7" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>45074</v>
+        <v>45087</v>
       </c>
       <c r="BI7" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>45075</v>
+        <v>45088</v>
       </c>
       <c r="BJ7" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>45076</v>
+        <v>45089</v>
       </c>
       <c r="BK7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>45077</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="8" spans="1:63" customFormat="1" ht="31" customHeight="1">
@@ -8736,227 +8793,227 @@
       <c r="G8" s="68"/>
       <c r="H8" s="53" t="str">
         <f t="shared" ref="H8:AM8" ca="1" si="3">LEFT(TEXT(H7,"aaa"),1)</f>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="I8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="J8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="K8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="L8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="M8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="N8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="O8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="P8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="Q8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="R8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="S8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="T8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="U8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="V8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="W8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="X8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="Y8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="Z8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AA8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AB8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AC8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AD8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AE8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AF8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AG8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AH8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AI8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AJ8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AK8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AL8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AM8" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AN8" s="50" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"aaa"),1)</f>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AO8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AP8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AQ8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AR8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AS8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AT8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AU8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AV8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AW8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AX8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AY8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AZ8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="BA8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="BB8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="BC8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="BD8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="BE8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="BF8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="BG8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="BH8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="BI8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="BJ8" s="50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="BK8" s="67" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
     </row>
     <row r="9" spans="1:63" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
@@ -9269,7 +9326,7 @@
       </c>
       <c r="E11" s="42">
         <f ca="1">TODAY()</f>
-        <v>45009</v>
+        <v>45022</v>
       </c>
       <c r="F11" s="12">
         <v>3</v>
@@ -9509,7 +9566,7 @@
       <c r="D12" s="44"/>
       <c r="E12" s="42">
         <f ca="1">TODAY()+5</f>
-        <v>45014</v>
+        <v>45027</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -9751,7 +9808,7 @@
       </c>
       <c r="E13" s="42">
         <f ca="1">TODAY()-3</f>
-        <v>45006</v>
+        <v>45019</v>
       </c>
       <c r="F13" s="12">
         <v>10</v>
@@ -9991,7 +10048,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="42">
         <f ca="1">TODAY()+20</f>
-        <v>45029</v>
+        <v>45042</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -10233,7 +10290,7 @@
       </c>
       <c r="E15" s="42">
         <f ca="1">TODAY()+6</f>
-        <v>45015</v>
+        <v>45028</v>
       </c>
       <c r="F15" s="12">
         <v>6</v>
@@ -10710,7 +10767,7 @@
       </c>
       <c r="E17" s="42">
         <f ca="1">TODAY()+6</f>
-        <v>45015</v>
+        <v>45028</v>
       </c>
       <c r="F17" s="12">
         <v>13</v>
@@ -10952,7 +11009,7 @@
       </c>
       <c r="E18" s="42">
         <f ca="1">TODAY()+7</f>
-        <v>45016</v>
+        <v>45029</v>
       </c>
       <c r="F18" s="12">
         <v>9</v>
@@ -11194,7 +11251,7 @@
       </c>
       <c r="E19" s="42">
         <f ca="1">TODAY()+15</f>
-        <v>45024</v>
+        <v>45037</v>
       </c>
       <c r="F19" s="12">
         <v>11</v>
@@ -11434,7 +11491,7 @@
       <c r="D20" s="44"/>
       <c r="E20" s="42">
         <f ca="1">TODAY()+24</f>
-        <v>45033</v>
+        <v>45046</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
@@ -11674,7 +11731,7 @@
       <c r="D21" s="81"/>
       <c r="E21" s="42">
         <f ca="1">TODAY()+25</f>
-        <v>45034</v>
+        <v>45047</v>
       </c>
       <c r="F21" s="12">
         <v>24</v>
@@ -12149,7 +12206,7 @@
       <c r="D23" s="81"/>
       <c r="E23" s="42">
         <f ca="1">TODAY()+15</f>
-        <v>45024</v>
+        <v>45037</v>
       </c>
       <c r="F23" s="12">
         <v>4</v>
@@ -12389,7 +12446,7 @@
       <c r="D24" s="44"/>
       <c r="E24" s="42">
         <f ca="1">TODAY()+19</f>
-        <v>45028</v>
+        <v>45041</v>
       </c>
       <c r="F24" s="12">
         <v>14</v>
@@ -12629,7 +12686,7 @@
       <c r="D25" s="81"/>
       <c r="E25" s="42">
         <f ca="1">TODAY()+35</f>
-        <v>45044</v>
+        <v>45057</v>
       </c>
       <c r="F25" s="12">
         <v>6</v>
@@ -12869,7 +12926,7 @@
       <c r="D26" s="44"/>
       <c r="E26" s="42">
         <f ca="1">TODAY()+48</f>
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="F26" s="12">
         <v>3</v>
@@ -13109,7 +13166,7 @@
       <c r="D27" s="81"/>
       <c r="E27" s="42">
         <f ca="1">TODAY()+40</f>
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="F27" s="12">
         <v>19</v>
@@ -13584,7 +13641,7 @@
       <c r="D29" s="81"/>
       <c r="E29" s="42">
         <f ca="1">TODAY()+37</f>
-        <v>45046</v>
+        <v>45059</v>
       </c>
       <c r="F29" s="12">
         <v>15</v>
@@ -13824,7 +13881,7 @@
       <c r="D30" s="44"/>
       <c r="E30" s="42">
         <f ca="1">TODAY()+29</f>
-        <v>45038</v>
+        <v>45051</v>
       </c>
       <c r="F30" s="12">
         <v>5</v>
@@ -14064,7 +14121,7 @@
       <c r="D31" s="81"/>
       <c r="E31" s="42">
         <f ca="1">TODAY()+80</f>
-        <v>45089</v>
+        <v>45102</v>
       </c>
       <c r="F31" s="12">
         <v>5</v>
@@ -15095,17 +15152,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>H$7&lt;=오늘​​</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15405,7 +15462,7 @@
       </c>
       <c r="C5" s="47">
         <f ca="1">IFERROR(IF(MIN(중요 #REF!)=0,TODAY(),MIN(중요 #REF!)),TODAY())</f>
-        <v>45009</v>
+        <v>45022</v>
       </c>
       <c r="E5" s="63"/>
       <c r="H5" s="36"/>
@@ -15414,14 +15471,14 @@
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
       <c r="M5" s="38"/>
-      <c r="O5" s="113" t="s">
+      <c r="O5" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
       <c r="U5" s="48">
         <v>13</v>
       </c>
@@ -15462,7 +15519,7 @@
       <c r="U6" s="23"/>
       <c r="V6" s="23" t="str">
         <f ca="1">IF(OR(TEXT(V7,"m월")=O6,TEXT(V7,"m월")=H6),"",TEXT(V7,"m월"))</f>
-        <v/>
+        <v>5월</v>
       </c>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
@@ -15482,7 +15539,7 @@
       <c r="AI6" s="23"/>
       <c r="AJ6" s="78" t="str">
         <f ca="1">IF(OR(TEXT(AJ7,"m월")=AC6,TEXT(AJ7,"m월")=V6,TEXT(AJ7,"m월")=O6,TEXT(AJ7,"m월")=H6),"",TEXT(AJ7,"m월"))</f>
-        <v>5월</v>
+        <v/>
       </c>
       <c r="AK6" s="78"/>
       <c r="AL6" s="78"/>
@@ -15512,7 +15569,7 @@
       <c r="BD6" s="23"/>
       <c r="BE6" s="23" t="str">
         <f ca="1">IF(OR(TEXT(BE7,"m월")=AX6,TEXT(BE7,"m월")=AQ6,TEXT(BE7,"m월")=AJ6,TEXT(BE7,"m월")=AC6),"",TEXT(BE7,"m월"))</f>
-        <v/>
+        <v>6월</v>
       </c>
       <c r="BF6" s="23"/>
       <c r="BG6" s="23"/>
@@ -15527,227 +15584,227 @@
       <c r="E7" s="2"/>
       <c r="H7" s="54">
         <f ca="1">IFERROR(Project_Start+스크롤_증분,TODAY())</f>
-        <v>45022</v>
+        <v>45035</v>
       </c>
       <c r="I7" s="56">
         <f ca="1">H7+1</f>
-        <v>45023</v>
+        <v>45036</v>
       </c>
       <c r="J7" s="56">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>45024</v>
+        <v>45037</v>
       </c>
       <c r="K7" s="56">
         <f ca="1">J7+1</f>
-        <v>45025</v>
+        <v>45038</v>
       </c>
       <c r="L7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45026</v>
+        <v>45039</v>
       </c>
       <c r="M7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="N7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45041</v>
       </c>
       <c r="O7" s="56">
         <f ca="1">N7+1</f>
-        <v>45029</v>
+        <v>45042</v>
       </c>
       <c r="P7" s="56">
         <f ca="1">O7+1</f>
-        <v>45030</v>
+        <v>45043</v>
       </c>
       <c r="Q7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45044</v>
       </c>
       <c r="R7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45045</v>
       </c>
       <c r="S7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45033</v>
+        <v>45046</v>
       </c>
       <c r="T7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45034</v>
+        <v>45047</v>
       </c>
       <c r="U7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45048</v>
       </c>
       <c r="V7" s="56">
         <f ca="1">U7+1</f>
-        <v>45036</v>
+        <v>45049</v>
       </c>
       <c r="W7" s="56">
         <f ca="1">V7+1</f>
-        <v>45037</v>
+        <v>45050</v>
       </c>
       <c r="X7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45051</v>
       </c>
       <c r="Y7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45052</v>
       </c>
       <c r="Z7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45040</v>
+        <v>45053</v>
       </c>
       <c r="AA7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45041</v>
+        <v>45054</v>
       </c>
       <c r="AB7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45055</v>
       </c>
       <c r="AC7" s="56">
         <f ca="1">AB7+1</f>
-        <v>45043</v>
+        <v>45056</v>
       </c>
       <c r="AD7" s="56">
         <f ca="1">AC7+1</f>
-        <v>45044</v>
+        <v>45057</v>
       </c>
       <c r="AE7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45045</v>
+        <v>45058</v>
       </c>
       <c r="AF7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45059</v>
       </c>
       <c r="AG7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45047</v>
+        <v>45060</v>
       </c>
       <c r="AH7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45048</v>
+        <v>45061</v>
       </c>
       <c r="AI7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="AJ7" s="56">
         <f ca="1">AI7+1</f>
-        <v>45050</v>
+        <v>45063</v>
       </c>
       <c r="AK7" s="56">
         <f ca="1">AJ7+1</f>
-        <v>45051</v>
+        <v>45064</v>
       </c>
       <c r="AL7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>45065</v>
       </c>
       <c r="AM7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45053</v>
+        <v>45066</v>
       </c>
       <c r="AN7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45054</v>
+        <v>45067</v>
       </c>
       <c r="AO7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45055</v>
+        <v>45068</v>
       </c>
       <c r="AP7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
+        <v>45069</v>
       </c>
       <c r="AQ7" s="56">
         <f ca="1">AP7+1</f>
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="AR7" s="56">
         <f ca="1">AQ7+1</f>
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="AS7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="AT7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45073</v>
       </c>
       <c r="AU7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45061</v>
+        <v>45074</v>
       </c>
       <c r="AV7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45062</v>
+        <v>45075</v>
       </c>
       <c r="AW7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45063</v>
+        <v>45076</v>
       </c>
       <c r="AX7" s="56">
         <f ca="1">AW7+1</f>
-        <v>45064</v>
+        <v>45077</v>
       </c>
       <c r="AY7" s="56">
         <f ca="1">AX7+1</f>
-        <v>45065</v>
+        <v>45078</v>
       </c>
       <c r="AZ7" s="56">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>45066</v>
+        <v>45079</v>
       </c>
       <c r="BA7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45067</v>
+        <v>45080</v>
       </c>
       <c r="BB7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45068</v>
+        <v>45081</v>
       </c>
       <c r="BC7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45069</v>
+        <v>45082</v>
       </c>
       <c r="BD7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45070</v>
+        <v>45083</v>
       </c>
       <c r="BE7" s="56">
         <f ca="1">BD7+1</f>
-        <v>45071</v>
+        <v>45084</v>
       </c>
       <c r="BF7" s="56">
         <f ca="1">BE7+1</f>
-        <v>45072</v>
+        <v>45085</v>
       </c>
       <c r="BG7" s="56">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>45073</v>
+        <v>45086</v>
       </c>
       <c r="BH7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45074</v>
+        <v>45087</v>
       </c>
       <c r="BI7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45075</v>
+        <v>45088</v>
       </c>
       <c r="BJ7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45076</v>
+        <v>45089</v>
       </c>
       <c r="BK7" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>45077</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="8" spans="1:63" customFormat="1" ht="31" customHeight="1">
@@ -15770,227 +15827,227 @@
       <c r="G8" s="59"/>
       <c r="H8" s="58" t="str">
         <f t="shared" ref="H8:AM8" ca="1" si="3">LEFT(TEXT(H7,"aaa"),1)</f>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="I8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="J8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="L8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="M8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="N8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="O8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="P8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="Q8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="R8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="S8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="T8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="U8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="V8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="W8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="X8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="Y8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="Z8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AA8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AB8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AC8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AD8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AE8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AF8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AG8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AH8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AI8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AJ8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AK8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AL8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AM8" s="57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AN8" s="57" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"aaa"),1)</f>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AO8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AP8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AQ8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AR8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AS8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="AT8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="AU8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="AV8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="AW8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="AX8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="AY8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="AZ8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="BA8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="BB8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="BC8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="BD8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
       <c r="BE8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>목</v>
+        <v>수</v>
       </c>
       <c r="BF8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>금</v>
+        <v>목</v>
       </c>
       <c r="BG8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="BH8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>일</v>
+        <v>토</v>
       </c>
       <c r="BI8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>월</v>
+        <v>일</v>
       </c>
       <c r="BJ8" s="57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>화</v>
+        <v>월</v>
       </c>
       <c r="BK8" s="55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>수</v>
+        <v>화</v>
       </c>
     </row>
     <row r="9" spans="1:63" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
@@ -16303,7 +16360,7 @@
       </c>
       <c r="E11" s="42">
         <f ca="1">TODAY()</f>
-        <v>45009</v>
+        <v>45022</v>
       </c>
       <c r="F11" s="12">
         <v>3</v>
@@ -16543,7 +16600,7 @@
       <c r="D12" s="43"/>
       <c r="E12" s="42">
         <f ca="1">TODAY()+5</f>
-        <v>45014</v>
+        <v>45027</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -16785,7 +16842,7 @@
       </c>
       <c r="E13" s="42">
         <f ca="1">TODAY()-3</f>
-        <v>45006</v>
+        <v>45019</v>
       </c>
       <c r="F13" s="12">
         <v>10</v>
@@ -17025,7 +17082,7 @@
       <c r="D14" s="43"/>
       <c r="E14" s="42">
         <f ca="1">TODAY()+20</f>
-        <v>45029</v>
+        <v>45042</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -17267,7 +17324,7 @@
       </c>
       <c r="E15" s="42">
         <f ca="1">TODAY()+6</f>
-        <v>45015</v>
+        <v>45028</v>
       </c>
       <c r="F15" s="12">
         <v>6</v>
@@ -17744,7 +17801,7 @@
       </c>
       <c r="E17" s="42">
         <f ca="1">TODAY()+6</f>
-        <v>45015</v>
+        <v>45028</v>
       </c>
       <c r="F17" s="12">
         <v>13</v>
@@ -17986,7 +18043,7 @@
       </c>
       <c r="E18" s="42">
         <f ca="1">TODAY()+7</f>
-        <v>45016</v>
+        <v>45029</v>
       </c>
       <c r="F18" s="12">
         <v>9</v>
@@ -18228,7 +18285,7 @@
       </c>
       <c r="E19" s="42">
         <f ca="1">TODAY()+15</f>
-        <v>45024</v>
+        <v>45037</v>
       </c>
       <c r="F19" s="12">
         <v>11</v>
@@ -18468,7 +18525,7 @@
       <c r="D20" s="43"/>
       <c r="E20" s="42">
         <f ca="1">TODAY()+24</f>
-        <v>45033</v>
+        <v>45046</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
@@ -18708,7 +18765,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="42">
         <f ca="1">TODAY()+25</f>
-        <v>45034</v>
+        <v>45047</v>
       </c>
       <c r="F21" s="12">
         <v>24</v>
@@ -19183,7 +19240,7 @@
       <c r="D23" s="43"/>
       <c r="E23" s="42">
         <f ca="1">TODAY()+15</f>
-        <v>45024</v>
+        <v>45037</v>
       </c>
       <c r="F23" s="12">
         <v>4</v>
@@ -19423,7 +19480,7 @@
       <c r="D24" s="43"/>
       <c r="E24" s="42">
         <f ca="1">TODAY()+19</f>
-        <v>45028</v>
+        <v>45041</v>
       </c>
       <c r="F24" s="12">
         <v>14</v>
@@ -19663,7 +19720,7 @@
       <c r="D25" s="43"/>
       <c r="E25" s="42">
         <f ca="1">TODAY()+35</f>
-        <v>45044</v>
+        <v>45057</v>
       </c>
       <c r="F25" s="12">
         <v>6</v>
@@ -19903,7 +19960,7 @@
       <c r="D26" s="43"/>
       <c r="E26" s="42">
         <f ca="1">TODAY()+48</f>
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="F26" s="12">
         <v>3</v>
@@ -20143,7 +20200,7 @@
       <c r="D27" s="43"/>
       <c r="E27" s="42">
         <f ca="1">TODAY()+40</f>
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="F27" s="12">
         <v>19</v>
@@ -20618,7 +20675,7 @@
       <c r="D29" s="43"/>
       <c r="E29" s="42">
         <f ca="1">TODAY()+37</f>
-        <v>45046</v>
+        <v>45059</v>
       </c>
       <c r="F29" s="12">
         <v>15</v>
@@ -20858,7 +20915,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="42">
         <f ca="1">TODAY()+29</f>
-        <v>45038</v>
+        <v>45051</v>
       </c>
       <c r="F30" s="12">
         <v>5</v>
@@ -21098,7 +21155,7 @@
       <c r="D31" s="43"/>
       <c r="E31" s="42">
         <f ca="1">TODAY()+80</f>
-        <v>45089</v>
+        <v>45102</v>
       </c>
       <c r="F31" s="12">
         <v>5</v>
@@ -22129,17 +22186,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="4" priority="78">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>H$7&lt;=오늘​​</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
